--- a/data/features.xlsx
+++ b/data/features.xlsx
@@ -7,27 +7,55 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="常规" sheetId="1" r:id="rId1"/>
+    <sheet name="增长率类" sheetId="2" r:id="rId2"/>
+    <sheet name="同比类" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>feature_code</t>
   </si>
   <si>
-    <t>总资产净利润率</t>
-  </si>
-  <si>
-    <t>zzcjlrl</t>
-  </si>
-  <si>
     <t>feature_name</t>
+  </si>
+  <si>
+    <t>财务费用率</t>
+  </si>
+  <si>
+    <t>cwfyl</t>
+  </si>
+  <si>
+    <t>营业收入增长率</t>
+  </si>
+  <si>
+    <t>yysr</t>
+  </si>
+  <si>
+    <t>yysr_zzl</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>营运资金占比</t>
+  </si>
+  <si>
+    <t>yyzjzb</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>财务费用/营业收入</t>
+  </si>
+  <si>
+    <t>(流动资产合计-流动负债合计)/资产合计</t>
   </si>
 </sst>
 </file>
@@ -63,8 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -366,32 +397,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="11" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="3" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -399,23 +491,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
